--- a/static/download/2013/RP1_APT_TxOut_2013.xlsx
+++ b/static/download/2013/RP1_APT_TxOut_2013.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="TxOut_APT" sheetId="1" r:id="rId3"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="274">
   <si>
     <t>Data source</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Meta data</t>
   </si>
   <si>
+    <t>Metadata - Single European Sky Portal</t>
+  </si>
+  <si>
     <t>Release date</t>
   </si>
   <si>
@@ -40,7 +43,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>NSA-PRU-Support@eurocontrol.int</t>
+    <t>pru-support@eurocontrol.int</t>
   </si>
   <si>
     <t>JAN-DEC</t>
@@ -866,8 +869,8 @@
     <font>
       <u/>
       <sz val="9.0"/>
-      <color rgb="FF396EA2"/>
-      <name val="Calibri"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -944,7 +947,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
+    <border/>
     <border>
       <left/>
       <right/>
@@ -1091,256 +1095,278 @@
   </cellStyleXfs>
   <cellXfs count="91">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="7" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="3" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="7" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="6" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="5" fillId="3" fontId="6" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="5" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="6" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="6" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="6" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="6" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="3" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="6" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="6" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="11" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="10" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="7" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="11" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="6" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="6" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="4" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="11" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="11" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1349,37 +1375,40 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.57"/>
-    <col customWidth="1" min="2" max="2" width="13.43"/>
-    <col customWidth="1" min="3" max="3" width="19.71"/>
-    <col customWidth="1" min="4" max="4" width="10.14"/>
-    <col customWidth="1" min="5" max="5" width="11.86"/>
-    <col customWidth="1" min="6" max="7" width="11.57"/>
-    <col customWidth="1" min="8" max="8" width="25.57"/>
-    <col customWidth="1" min="9" max="9" width="27.57"/>
+    <col customWidth="1" min="1" max="1" width="18.0"/>
+    <col customWidth="1" min="2" max="2" width="11.75"/>
+    <col customWidth="1" min="3" max="3" width="17.25"/>
+    <col customWidth="1" min="4" max="4" width="8.88"/>
+    <col customWidth="1" min="5" max="5" width="10.38"/>
+    <col customWidth="1" min="6" max="7" width="10.13"/>
+    <col customWidth="1" min="8" max="8" width="22.38"/>
+    <col customWidth="1" min="9" max="9" width="24.13"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -1398,9 +1427,8 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="str">
-        <f>HYPERLINK("http://prudata.webfactional.com/wiki/index.php/Additional_time_in_taxi-out_phase","Taxi out additional time")</f>
-        <v>Taxi out additional time</v>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -1408,22 +1436,22 @@
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="8">
         <v>41639.0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="11"/>
@@ -1446,60 +1474,60 @@
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
       <c r="E4" s="22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I4" s="23"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="26">
         <v>97192.0</v>
@@ -1517,16 +1545,16 @@
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="26">
         <v>30693.0</v>
@@ -1544,16 +1572,16 @@
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="26">
         <v>228693.0</v>
@@ -1571,16 +1599,16 @@
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" s="26">
         <v>65182.0</v>
@@ -1598,16 +1626,16 @@
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" s="26">
         <v>53969.0</v>
@@ -1625,16 +1653,16 @@
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11" s="26">
         <v>96168.0</v>
@@ -1652,16 +1680,16 @@
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" s="26">
         <v>180830.0</v>
@@ -1679,16 +1707,16 @@
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" s="26">
         <v>26300.0</v>
@@ -1706,16 +1734,16 @@
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" s="26">
         <v>29419.0</v>
@@ -1733,37 +1761,37 @@
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
       <c r="H15" s="35"/>
       <c r="I15" s="31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E16" s="26">
         <v>29195.0</v>
@@ -1781,37 +1809,37 @@
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E17" s="33"/>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
       <c r="H17" s="35"/>
       <c r="I17" s="31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E18" s="26">
         <v>78796.0</v>
@@ -1829,16 +1857,16 @@
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E19" s="26">
         <v>44613.0</v>
@@ -1856,16 +1884,16 @@
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E20" s="26">
         <v>78868.0</v>
@@ -1883,16 +1911,16 @@
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E21" s="26">
         <v>31003.0</v>
@@ -1910,16 +1938,16 @@
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E22" s="26">
         <v>46520.0</v>
@@ -1937,16 +1965,16 @@
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E23" s="26">
         <v>115304.0</v>
@@ -1964,16 +1992,16 @@
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E24" s="26">
         <v>36831.0</v>
@@ -1991,16 +2019,16 @@
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E25" s="26">
         <v>227094.0</v>
@@ -2018,37 +2046,37 @@
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E26" s="33"/>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
       <c r="H26" s="35"/>
       <c r="I26" s="31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E27" s="26">
         <v>34020.0</v>
@@ -2066,16 +2094,16 @@
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E28" s="26">
         <v>37946.0</v>
@@ -2093,16 +2121,16 @@
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E29" s="26">
         <v>52620.0</v>
@@ -2120,16 +2148,16 @@
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E30" s="26">
         <v>68000.0</v>
@@ -2147,16 +2175,16 @@
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E31" s="26">
         <v>208465.0</v>
@@ -2174,16 +2202,16 @@
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E32" s="26">
         <v>79023.0</v>
@@ -2201,16 +2229,16 @@
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E33" s="26">
         <v>114074.0</v>
@@ -2228,121 +2256,121 @@
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B34" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="25" t="s">
-        <v>92</v>
-      </c>
       <c r="D34" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E34" s="33"/>
       <c r="F34" s="34"/>
       <c r="G34" s="34"/>
       <c r="H34" s="35"/>
       <c r="I34" s="31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E35" s="33"/>
       <c r="F35" s="34"/>
       <c r="G35" s="34"/>
       <c r="H35" s="35"/>
       <c r="I35" s="31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E36" s="33"/>
       <c r="F36" s="34"/>
       <c r="G36" s="34"/>
       <c r="H36" s="35"/>
       <c r="I36" s="31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E37" s="33"/>
       <c r="F37" s="34"/>
       <c r="G37" s="34"/>
       <c r="H37" s="35"/>
       <c r="I37" s="31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E38" s="33"/>
       <c r="F38" s="34"/>
       <c r="G38" s="34"/>
       <c r="H38" s="35"/>
       <c r="I38" s="31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E39" s="26">
         <v>69278.0</v>
@@ -2360,37 +2388,37 @@
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E40" s="33"/>
       <c r="F40" s="34"/>
       <c r="G40" s="34"/>
       <c r="H40" s="35"/>
       <c r="I40" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
       <c r="A41" s="25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E41" s="26">
         <v>98916.0</v>
@@ -2408,16 +2436,16 @@
     </row>
     <row r="42" ht="12.75" customHeight="1">
       <c r="A42" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E42" s="26">
         <v>31569.0</v>
@@ -2435,37 +2463,37 @@
     </row>
     <row r="43" ht="12.75" customHeight="1">
       <c r="A43" s="25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E43" s="33"/>
       <c r="F43" s="34"/>
       <c r="G43" s="34"/>
       <c r="H43" s="35"/>
       <c r="I43" s="31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E44" s="26">
         <v>45494.0</v>
@@ -2483,16 +2511,16 @@
     </row>
     <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E45" s="26">
         <v>26495.0</v>
@@ -2510,16 +2538,16 @@
     </row>
     <row r="46" ht="12.75" customHeight="1">
       <c r="A46" s="25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E46" s="26">
         <v>23837.0</v>
@@ -2537,16 +2565,16 @@
     </row>
     <row r="47" ht="12.75" customHeight="1">
       <c r="A47" s="25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E47" s="26">
         <v>18988.0</v>
@@ -2564,37 +2592,37 @@
     </row>
     <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E48" s="33"/>
       <c r="F48" s="34"/>
       <c r="G48" s="34"/>
       <c r="H48" s="35"/>
       <c r="I48" s="31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" ht="12.0" customHeight="1">
       <c r="A49" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E49" s="26">
         <v>33556.0</v>
@@ -2612,16 +2640,16 @@
     </row>
     <row r="50" ht="12.0" customHeight="1">
       <c r="A50" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E50" s="26">
         <v>20410.0</v>
@@ -2639,16 +2667,16 @@
     </row>
     <row r="51" ht="12.0" customHeight="1">
       <c r="A51" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E51" s="26">
         <v>131482.0</v>
@@ -2666,16 +2694,16 @@
     </row>
     <row r="52" ht="12.0" customHeight="1">
       <c r="A52" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E52" s="26">
         <v>27288.0</v>
@@ -2693,16 +2721,16 @@
     </row>
     <row r="53" ht="12.0" customHeight="1">
       <c r="A53" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E53" s="26">
         <v>160722.0</v>
@@ -2720,16 +2748,16 @@
     </row>
     <row r="54" ht="12.0" customHeight="1">
       <c r="A54" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E54" s="26">
         <v>49485.0</v>
@@ -2747,16 +2775,16 @@
     </row>
     <row r="55" ht="12.0" customHeight="1">
       <c r="A55" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E55" s="26">
         <v>79622.0</v>
@@ -2774,16 +2802,16 @@
     </row>
     <row r="56" ht="12.0" customHeight="1">
       <c r="A56" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E56" s="26">
         <v>26773.0</v>
@@ -2801,16 +2829,16 @@
     </row>
     <row r="57" ht="12.0" customHeight="1">
       <c r="A57" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E57" s="26">
         <v>18597.0</v>
@@ -2828,16 +2856,16 @@
     </row>
     <row r="58" ht="12.0" customHeight="1">
       <c r="A58" s="25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E58" s="26">
         <v>54630.0</v>
@@ -2855,37 +2883,37 @@
     </row>
     <row r="59" ht="12.0" customHeight="1">
       <c r="A59" s="25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E59" s="33"/>
       <c r="F59" s="34"/>
       <c r="G59" s="34"/>
       <c r="H59" s="35"/>
       <c r="I59" s="31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" ht="12.0" customHeight="1">
       <c r="A60" s="25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E60" s="26">
         <v>227815.0</v>
@@ -2903,16 +2931,16 @@
     </row>
     <row r="61" ht="12.0" customHeight="1">
       <c r="A61" s="25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E61" s="26">
         <v>111039.0</v>
@@ -2930,16 +2958,16 @@
     </row>
     <row r="62" ht="12.0" customHeight="1">
       <c r="A62" s="25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E62" s="26">
         <v>38432.0</v>
@@ -2957,16 +2985,16 @@
     </row>
     <row r="63" ht="12.0" customHeight="1">
       <c r="A63" s="25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E63" s="26">
         <v>64253.0</v>
@@ -2984,16 +3012,16 @@
     </row>
     <row r="64" ht="12.0" customHeight="1">
       <c r="A64" s="25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E64" s="26">
         <v>39560.0</v>
@@ -3011,37 +3039,37 @@
     </row>
     <row r="65" ht="12.0" customHeight="1">
       <c r="A65" s="25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E65" s="33"/>
       <c r="F65" s="34"/>
       <c r="G65" s="34"/>
       <c r="H65" s="35"/>
       <c r="I65" s="31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" ht="12.0" customHeight="1">
       <c r="A66" s="25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E66" s="26">
         <v>74636.0</v>
@@ -3059,37 +3087,37 @@
     </row>
     <row r="67" ht="12.0" customHeight="1">
       <c r="A67" s="25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E67" s="33"/>
       <c r="F67" s="34"/>
       <c r="G67" s="34"/>
       <c r="H67" s="35"/>
       <c r="I67" s="31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" ht="12.0" customHeight="1">
       <c r="A68" s="25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E68" s="26">
         <v>44865.0</v>
@@ -3107,37 +3135,37 @@
     </row>
     <row r="69" ht="12.0" customHeight="1">
       <c r="A69" s="25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E69" s="33"/>
       <c r="F69" s="34"/>
       <c r="G69" s="34"/>
       <c r="H69" s="35"/>
       <c r="I69" s="31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" ht="12.0" customHeight="1">
       <c r="A70" s="25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E70" s="26">
         <v>39519.0</v>
@@ -3155,16 +3183,16 @@
     </row>
     <row r="71" ht="12.0" customHeight="1">
       <c r="A71" s="25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E71" s="26">
         <v>139686.0</v>
@@ -3182,16 +3210,16 @@
     </row>
     <row r="72" ht="12.0" customHeight="1">
       <c r="A72" s="25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E72" s="26">
         <v>26162.0</v>
@@ -3209,37 +3237,37 @@
     </row>
     <row r="73" ht="12.0" customHeight="1">
       <c r="A73" s="25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E73" s="33"/>
       <c r="F73" s="34"/>
       <c r="G73" s="34"/>
       <c r="H73" s="35"/>
       <c r="I73" s="31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" ht="12.0" customHeight="1">
       <c r="A74" s="25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E74" s="26">
         <v>60212.0</v>
@@ -3257,37 +3285,37 @@
     </row>
     <row r="75" ht="12.0" customHeight="1">
       <c r="A75" s="25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E75" s="33"/>
       <c r="F75" s="34"/>
       <c r="G75" s="34"/>
       <c r="H75" s="35"/>
       <c r="I75" s="31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" ht="12.0" customHeight="1">
       <c r="A76" s="25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E76" s="26">
         <v>111840.0</v>
@@ -3305,16 +3333,16 @@
     </row>
     <row r="77" ht="12.0" customHeight="1">
       <c r="A77" s="25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E77" s="26">
         <v>29044.0</v>
@@ -3332,16 +3360,16 @@
     </row>
     <row r="78" ht="12.0" customHeight="1">
       <c r="A78" s="25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E78" s="26">
         <v>71289.0</v>
@@ -3359,37 +3387,37 @@
     </row>
     <row r="79" ht="12.0" customHeight="1">
       <c r="A79" s="25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E79" s="33"/>
       <c r="F79" s="34"/>
       <c r="G79" s="34"/>
       <c r="H79" s="35"/>
       <c r="I79" s="35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" ht="12.0" customHeight="1">
       <c r="A80" s="25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E80" s="26">
         <v>85438.0</v>
@@ -3407,16 +3435,16 @@
     </row>
     <row r="81" ht="12.0" customHeight="1">
       <c r="A81" s="25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E81" s="26">
         <v>122893.0</v>
@@ -3434,23 +3462,23 @@
     </row>
     <row r="82" ht="12.0" customHeight="1">
       <c r="A82" s="25" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E82" s="33"/>
       <c r="F82" s="34"/>
       <c r="G82" s="34"/>
       <c r="H82" s="35"/>
       <c r="I82" s="31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3462,18 +3490,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.86"/>
-    <col customWidth="1" min="2" max="2" width="17.29"/>
-    <col customWidth="1" min="3" max="3" width="10.43"/>
-    <col customWidth="1" min="4" max="4" width="22.86"/>
-    <col customWidth="1" min="5" max="5" width="9.0"/>
-    <col customWidth="1" min="6" max="6" width="30.43"/>
+    <col customWidth="1" min="1" max="1" width="12.13"/>
+    <col customWidth="1" min="2" max="2" width="15.13"/>
+    <col customWidth="1" min="3" max="3" width="9.13"/>
+    <col customWidth="1" min="4" max="4" width="20.0"/>
+    <col customWidth="1" min="5" max="5" width="7.88"/>
+    <col customWidth="1" min="6" max="6" width="26.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -3492,29 +3523,28 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="str">
-        <f>HYPERLINK("http://prudata.webfactional.com/wiki/index.php/Additional_time_in_taxi-out_phase","Taxi out additional time")</f>
-        <v>Taxi out additional time</v>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="41">
         <v>41639.0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
@@ -3522,36 +3552,36 @@
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="44"/>
       <c r="F3" s="45"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F4" s="47"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="48" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B5" s="45"/>
       <c r="C5" s="49" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D5" s="50">
         <v>0.0</v>
@@ -3563,13 +3593,13 @@
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D6" s="54">
         <v>3.3576386345466</v>
@@ -3579,13 +3609,13 @@
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D7" s="54">
         <v>3.29774034391299</v>
@@ -3595,11 +3625,11 @@
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="56" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B8" s="57"/>
       <c r="C8" s="58" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D8" s="59"/>
       <c r="E8" s="60"/>
@@ -3710,19 +3740,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.86"/>
-    <col customWidth="1" min="2" max="2" width="17.29"/>
-    <col customWidth="1" min="3" max="3" width="10.43"/>
-    <col customWidth="1" min="4" max="4" width="21.86"/>
-    <col customWidth="1" min="5" max="5" width="12.71"/>
-    <col customWidth="1" min="6" max="6" width="26.0"/>
-    <col customWidth="1" min="7" max="7" width="19.43"/>
+    <col customWidth="1" min="1" max="1" width="11.25"/>
+    <col customWidth="1" min="2" max="2" width="15.13"/>
+    <col customWidth="1" min="3" max="3" width="9.13"/>
+    <col customWidth="1" min="4" max="4" width="19.13"/>
+    <col customWidth="1" min="5" max="5" width="11.13"/>
+    <col customWidth="1" min="6" max="6" width="22.75"/>
+    <col customWidth="1" min="7" max="7" width="17.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
@@ -3741,30 +3774,29 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="str">
-        <f>HYPERLINK("http://prudata.webfactional.com/wiki/index.php/Additional_time_in_taxi-out_phase","Taxi out additional time")</f>
-        <v>Taxi out additional time</v>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="G1" s="5"/>
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="8">
         <v>41639.0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="10"/>
     </row>
@@ -3788,30 +3820,30 @@
     </row>
     <row r="5" ht="25.5" customHeight="1">
       <c r="A5" s="63" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E5" s="63" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="A6" s="48" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B6" s="61"/>
       <c r="C6" s="64">
@@ -3821,7 +3853,7 @@
         <v>40544.0</v>
       </c>
       <c r="E6" s="66" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F6" s="50">
         <v>0.0</v>
@@ -3832,7 +3864,7 @@
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B7" s="68"/>
       <c r="C7" s="69">
@@ -3842,14 +3874,14 @@
         <v>40575.0</v>
       </c>
       <c r="E7" s="71" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F7" s="72"/>
       <c r="G7" s="73"/>
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B8" s="68"/>
       <c r="C8" s="69">
@@ -3859,14 +3891,14 @@
         <v>40603.0</v>
       </c>
       <c r="E8" s="71" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F8" s="72"/>
       <c r="G8" s="73"/>
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="A9" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B9" s="68"/>
       <c r="C9" s="69">
@@ -3876,14 +3908,14 @@
         <v>40634.0</v>
       </c>
       <c r="E9" s="71" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F9" s="72"/>
       <c r="G9" s="73"/>
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="A10" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B10" s="68"/>
       <c r="C10" s="69">
@@ -3893,14 +3925,14 @@
         <v>40664.0</v>
       </c>
       <c r="E10" s="71" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F10" s="72"/>
       <c r="G10" s="73"/>
     </row>
     <row r="11" ht="12.0" customHeight="1">
       <c r="A11" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B11" s="68"/>
       <c r="C11" s="69">
@@ -3910,14 +3942,14 @@
         <v>40695.0</v>
       </c>
       <c r="E11" s="71" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F11" s="72"/>
       <c r="G11" s="73"/>
     </row>
     <row r="12" ht="12.0" customHeight="1">
       <c r="A12" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B12" s="68"/>
       <c r="C12" s="69">
@@ -3927,14 +3959,14 @@
         <v>40725.0</v>
       </c>
       <c r="E12" s="71" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F12" s="72"/>
       <c r="G12" s="73"/>
     </row>
     <row r="13" ht="12.0" customHeight="1">
       <c r="A13" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B13" s="68"/>
       <c r="C13" s="69">
@@ -3944,14 +3976,14 @@
         <v>40756.0</v>
       </c>
       <c r="E13" s="71" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F13" s="72"/>
       <c r="G13" s="73"/>
     </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="A14" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B14" s="68"/>
       <c r="C14" s="69">
@@ -3961,14 +3993,14 @@
         <v>40787.0</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F14" s="72"/>
       <c r="G14" s="73"/>
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="A15" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B15" s="68"/>
       <c r="C15" s="69">
@@ -3978,14 +4010,14 @@
         <v>40817.0</v>
       </c>
       <c r="E15" s="71" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F15" s="72"/>
       <c r="G15" s="73"/>
     </row>
     <row r="16" ht="12.0" customHeight="1">
       <c r="A16" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B16" s="68"/>
       <c r="C16" s="69">
@@ -3995,14 +4027,14 @@
         <v>40848.0</v>
       </c>
       <c r="E16" s="71" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F16" s="72"/>
       <c r="G16" s="73"/>
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="A17" s="56" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B17" s="57"/>
       <c r="C17" s="74">
@@ -4012,17 +4044,17 @@
         <v>40878.0</v>
       </c>
       <c r="E17" s="76" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F17" s="77"/>
       <c r="G17" s="78"/>
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="A18" s="48" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C18" s="64">
         <v>2012.0</v>
@@ -4031,7 +4063,7 @@
         <v>40909.0</v>
       </c>
       <c r="E18" s="66" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F18" s="50">
         <v>3.44375263192421</v>
@@ -4040,10 +4072,10 @@
     </row>
     <row r="19" ht="12.0" customHeight="1">
       <c r="A19" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C19" s="69">
         <v>2012.0</v>
@@ -4052,7 +4084,7 @@
         <v>40940.0</v>
       </c>
       <c r="E19" s="71" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F19" s="54">
         <v>3.69007866256838</v>
@@ -4061,10 +4093,10 @@
     </row>
     <row r="20" ht="12.0" customHeight="1">
       <c r="A20" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C20" s="69">
         <v>2012.0</v>
@@ -4073,7 +4105,7 @@
         <v>40969.0</v>
       </c>
       <c r="E20" s="71" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F20" s="54">
         <v>3.07268601086058</v>
@@ -4082,10 +4114,10 @@
     </row>
     <row r="21" ht="12.0" customHeight="1">
       <c r="A21" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C21" s="69">
         <v>2012.0</v>
@@ -4094,7 +4126,7 @@
         <v>41000.0</v>
       </c>
       <c r="E21" s="71" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F21" s="54">
         <v>3.21530173348876</v>
@@ -4103,10 +4135,10 @@
     </row>
     <row r="22" ht="12.0" customHeight="1">
       <c r="A22" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C22" s="69">
         <v>2012.0</v>
@@ -4115,7 +4147,7 @@
         <v>41030.0</v>
       </c>
       <c r="E22" s="71" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F22" s="54">
         <v>3.26530820144634</v>
@@ -4124,10 +4156,10 @@
     </row>
     <row r="23" ht="12.0" customHeight="1">
       <c r="A23" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C23" s="69">
         <v>2012.0</v>
@@ -4136,7 +4168,7 @@
         <v>41061.0</v>
       </c>
       <c r="E23" s="71" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F23" s="54">
         <v>3.46136196784104</v>
@@ -4145,10 +4177,10 @@
     </row>
     <row r="24" ht="12.0" customHeight="1">
       <c r="A24" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C24" s="69">
         <v>2012.0</v>
@@ -4157,7 +4189,7 @@
         <v>41091.0</v>
       </c>
       <c r="E24" s="71" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F24" s="54">
         <v>3.47401848072766</v>
@@ -4166,10 +4198,10 @@
     </row>
     <row r="25" ht="12.0" customHeight="1">
       <c r="A25" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C25" s="69">
         <v>2012.0</v>
@@ -4178,7 +4210,7 @@
         <v>41122.0</v>
       </c>
       <c r="E25" s="71" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F25" s="54">
         <v>3.22885884280567</v>
@@ -4187,10 +4219,10 @@
     </row>
     <row r="26" ht="12.0" customHeight="1">
       <c r="A26" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C26" s="69">
         <v>2012.0</v>
@@ -4199,7 +4231,7 @@
         <v>41153.0</v>
       </c>
       <c r="E26" s="71" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F26" s="54">
         <v>3.32975452954594</v>
@@ -4208,10 +4240,10 @@
     </row>
     <row r="27" ht="12.0" customHeight="1">
       <c r="A27" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C27" s="69">
         <v>2012.0</v>
@@ -4220,7 +4252,7 @@
         <v>41183.0</v>
       </c>
       <c r="E27" s="71" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F27" s="54">
         <v>3.35588357242051</v>
@@ -4229,10 +4261,10 @@
     </row>
     <row r="28" ht="12.0" customHeight="1">
       <c r="A28" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B28" s="52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C28" s="69">
         <v>2012.0</v>
@@ -4241,7 +4273,7 @@
         <v>41214.0</v>
       </c>
       <c r="E28" s="71" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F28" s="54">
         <v>3.01361500246162</v>
@@ -4250,10 +4282,10 @@
     </row>
     <row r="29" ht="12.0" customHeight="1">
       <c r="A29" s="56" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B29" s="57" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C29" s="74">
         <v>2012.0</v>
@@ -4262,7 +4294,7 @@
         <v>41244.0</v>
       </c>
       <c r="E29" s="76" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F29" s="80">
         <v>3.82707239419952</v>
@@ -4271,10 +4303,10 @@
     </row>
     <row r="30" ht="12.0" customHeight="1">
       <c r="A30" s="48" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C30" s="64">
         <v>2013.0</v>
@@ -4283,7 +4315,7 @@
         <v>41275.0</v>
       </c>
       <c r="E30" s="66" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F30" s="50">
         <v>3.97554584215156</v>
@@ -4292,10 +4324,10 @@
     </row>
     <row r="31" ht="12.0" customHeight="1">
       <c r="A31" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B31" s="52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C31" s="69">
         <v>2013.0</v>
@@ -4304,7 +4336,7 @@
         <v>41306.0</v>
       </c>
       <c r="E31" s="71" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F31" s="54">
         <v>3.97955874252352</v>
@@ -4313,10 +4345,10 @@
     </row>
     <row r="32" ht="12.0" customHeight="1">
       <c r="A32" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C32" s="69">
         <v>2013.0</v>
@@ -4325,7 +4357,7 @@
         <v>41334.0</v>
       </c>
       <c r="E32" s="71" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F32" s="81">
         <v>3.56367339570354</v>
@@ -4334,10 +4366,10 @@
     </row>
     <row r="33" ht="12.0" customHeight="1">
       <c r="A33" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C33" s="69">
         <v>2013.0</v>
@@ -4346,7 +4378,7 @@
         <v>41365.0</v>
       </c>
       <c r="E33" s="71" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F33" s="81">
         <v>2.97210771907779</v>
@@ -4355,10 +4387,10 @@
     </row>
     <row r="34" ht="12.0" customHeight="1">
       <c r="A34" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B34" s="52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C34" s="69">
         <v>2013.0</v>
@@ -4367,7 +4399,7 @@
         <v>41395.0</v>
       </c>
       <c r="E34" s="71" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F34" s="81">
         <v>3.18379721110727</v>
@@ -4376,10 +4408,10 @@
     </row>
     <row r="35" ht="12.0" customHeight="1">
       <c r="A35" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C35" s="69">
         <v>2013.0</v>
@@ -4388,7 +4420,7 @@
         <v>41426.0</v>
       </c>
       <c r="E35" s="71" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F35" s="54">
         <v>3.33393718356647</v>
@@ -4397,10 +4429,10 @@
     </row>
     <row r="36" ht="12.0" customHeight="1">
       <c r="A36" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B36" s="52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C36" s="69">
         <v>2013.0</v>
@@ -4409,7 +4441,7 @@
         <v>41456.0</v>
       </c>
       <c r="E36" s="71" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F36" s="54">
         <v>3.2716348902684</v>
@@ -4418,10 +4450,10 @@
     </row>
     <row r="37" ht="12.0" customHeight="1">
       <c r="A37" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B37" s="52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C37" s="69">
         <v>2013.0</v>
@@ -4430,7 +4462,7 @@
         <v>41487.0</v>
       </c>
       <c r="E37" s="71" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F37" s="54">
         <v>3.16636012883844</v>
@@ -4439,10 +4471,10 @@
     </row>
     <row r="38" ht="12.0" customHeight="1">
       <c r="A38" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C38" s="69">
         <v>2013.0</v>
@@ -4451,7 +4483,7 @@
         <v>41518.0</v>
       </c>
       <c r="E38" s="71" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F38" s="54">
         <v>3.17918359115604</v>
@@ -4460,10 +4492,10 @@
     </row>
     <row r="39" ht="12.0" customHeight="1">
       <c r="A39" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C39" s="69">
         <v>2013.0</v>
@@ -4472,7 +4504,7 @@
         <v>41548.0</v>
       </c>
       <c r="E39" s="71" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F39" s="54">
         <v>3.02326482141928</v>
@@ -4481,10 +4513,10 @@
     </row>
     <row r="40" ht="12.0" customHeight="1">
       <c r="A40" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C40" s="69">
         <v>2013.0</v>
@@ -4493,7 +4525,7 @@
         <v>41579.0</v>
       </c>
       <c r="E40" s="71" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F40" s="54">
         <v>2.91529349216361</v>
@@ -4502,10 +4534,10 @@
     </row>
     <row r="41" ht="12.0" customHeight="1">
       <c r="A41" s="56" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B41" s="57" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C41" s="74">
         <v>2013.0</v>
@@ -4514,7 +4546,7 @@
         <v>41609.0</v>
       </c>
       <c r="E41" s="76" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F41" s="80">
         <v>3.25266832326516</v>
@@ -4523,7 +4555,7 @@
     </row>
     <row r="42" ht="12.0" customHeight="1">
       <c r="A42" s="48" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B42" s="45"/>
       <c r="C42" s="64">
@@ -4533,14 +4565,14 @@
         <v>41640.0</v>
       </c>
       <c r="E42" s="66" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F42" s="82"/>
       <c r="G42" s="79"/>
     </row>
     <row r="43" ht="12.0" customHeight="1">
       <c r="A43" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B43" s="68"/>
       <c r="C43" s="69">
@@ -4550,14 +4582,14 @@
         <v>41671.0</v>
       </c>
       <c r="E43" s="71" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F43" s="72"/>
       <c r="G43" s="73"/>
     </row>
     <row r="44" ht="12.0" customHeight="1">
       <c r="A44" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B44" s="68"/>
       <c r="C44" s="69">
@@ -4567,14 +4599,14 @@
         <v>41699.0</v>
       </c>
       <c r="E44" s="71" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F44" s="72"/>
       <c r="G44" s="73"/>
     </row>
     <row r="45" ht="12.0" customHeight="1">
       <c r="A45" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B45" s="68"/>
       <c r="C45" s="69">
@@ -4584,14 +4616,14 @@
         <v>41730.0</v>
       </c>
       <c r="E45" s="71" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F45" s="72"/>
       <c r="G45" s="73"/>
     </row>
     <row r="46" ht="12.0" customHeight="1">
       <c r="A46" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B46" s="68"/>
       <c r="C46" s="69">
@@ -4601,14 +4633,14 @@
         <v>41760.0</v>
       </c>
       <c r="E46" s="71" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F46" s="72"/>
       <c r="G46" s="73"/>
     </row>
     <row r="47" ht="12.0" customHeight="1">
       <c r="A47" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B47" s="68"/>
       <c r="C47" s="69">
@@ -4618,14 +4650,14 @@
         <v>41791.0</v>
       </c>
       <c r="E47" s="71" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F47" s="72"/>
       <c r="G47" s="73"/>
     </row>
     <row r="48" ht="12.0" customHeight="1">
       <c r="A48" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B48" s="68"/>
       <c r="C48" s="69">
@@ -4635,14 +4667,14 @@
         <v>41821.0</v>
       </c>
       <c r="E48" s="71" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F48" s="72"/>
       <c r="G48" s="73"/>
     </row>
     <row r="49" ht="12.0" customHeight="1">
       <c r="A49" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B49" s="68"/>
       <c r="C49" s="69">
@@ -4652,14 +4684,14 @@
         <v>41852.0</v>
       </c>
       <c r="E49" s="71" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F49" s="72"/>
       <c r="G49" s="73"/>
     </row>
     <row r="50" ht="12.0" customHeight="1">
       <c r="A50" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B50" s="68"/>
       <c r="C50" s="69">
@@ -4669,14 +4701,14 @@
         <v>41883.0</v>
       </c>
       <c r="E50" s="71" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F50" s="72"/>
       <c r="G50" s="73"/>
     </row>
     <row r="51" ht="12.0" customHeight="1">
       <c r="A51" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B51" s="68"/>
       <c r="C51" s="69">
@@ -4686,14 +4718,14 @@
         <v>41913.0</v>
       </c>
       <c r="E51" s="71" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F51" s="72"/>
       <c r="G51" s="73"/>
     </row>
     <row r="52" ht="12.0" customHeight="1">
       <c r="A52" s="47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B52" s="68"/>
       <c r="C52" s="69">
@@ -4703,14 +4735,14 @@
         <v>41944.0</v>
       </c>
       <c r="E52" s="71" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F52" s="72"/>
       <c r="G52" s="73"/>
     </row>
     <row r="53" ht="12.0" customHeight="1">
       <c r="A53" s="56" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B53" s="57"/>
       <c r="C53" s="74">
@@ -4720,7 +4752,7 @@
         <v>41974.0</v>
       </c>
       <c r="E53" s="76" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F53" s="77"/>
       <c r="G53" s="78"/>
@@ -4734,31 +4766,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.57"/>
-    <col customWidth="1" min="2" max="2" width="18.14"/>
-    <col customWidth="1" min="3" max="3" width="9.86"/>
-    <col customWidth="1" min="4" max="4" width="113.57"/>
-    <col customWidth="1" min="5" max="6" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="9.25"/>
+    <col customWidth="1" min="2" max="2" width="15.88"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="99.38"/>
+    <col customWidth="1" min="5" max="6" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="83" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B1" s="84" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C1" s="84" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="83" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
@@ -4766,13 +4801,13 @@
         <v>41320.0</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="86" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
@@ -4780,25 +4815,25 @@
         <v>41320.0</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="88" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C4" s="87" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
